--- a/output/python-code-for-graphics/output_simulated_data_offline.xlsx
+++ b/output/python-code-for-graphics/output_simulated_data_offline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frm19\OneDrive - Wageningen University &amp; Research\2. Thesis - Information Technology\3. Software Projects\mini-greenhouse-calibrator-model\output\python-code-for-graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C3AC9-35C6-4DD7-8CDF-F64028DBC45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CBF754-3E54-4561-8DD7-5D68E695AACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="-14400" windowWidth="12800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
